--- a/biology/Botanique/Les_Gouttes_de_Dieu_(série_télévisée)/Les_Gouttes_de_Dieu_(série_télévisée).xlsx
+++ b/biology/Botanique/Les_Gouttes_de_Dieu_(série_télévisée)/Les_Gouttes_de_Dieu_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Les_Gouttes_de_Dieu_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gouttes de Dieu (Drops of God - 神の雫[1]) est une mini-série télévisée américano-franco-japonaise[2], créée par Quoc Dang Tran et réalisée par Oded Ruskin d'après un scénario de Quoc Dang Tran, Clémence Madeleine-Perdrillat et Alice Vial[3],[4], et diffusée en France le 21 avril 2023 sur Apple TV+ puis le 27 mai 2024 sur France 2.
-Cette adaptation du manga culte Les Gouttes de Dieu créé par Tadashi Agi et Shu Okimoto est une coproduction des sociétés Les Productions Dynamic, 22H22 et Hulu Japon, réalisée en association avec Adline Entertainment, Legendary Television et Apple TV+, avec la participation de France Télévisions et le soutien des régions Provence-Alpes-Côte d'Azur et Île-de-France[5].
-La série est présentée en compétition internationale et en première mondiale au Festival Séries Mania à Lille en mars 2023[6],[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gouttes de Dieu (Drops of God - 神の雫) est une mini-série télévisée américano-franco-japonaise, créée par Quoc Dang Tran et réalisée par Oded Ruskin d'après un scénario de Quoc Dang Tran, Clémence Madeleine-Perdrillat et Alice Vial et diffusée en France le 21 avril 2023 sur Apple TV+ puis le 27 mai 2024 sur France 2.
+Cette adaptation du manga culte Les Gouttes de Dieu créé par Tadashi Agi et Shu Okimoto est une coproduction des sociétés Les Productions Dynamic, 22H22 et Hulu Japon, réalisée en association avec Adline Entertainment, Legendary Television et Apple TV+, avec la participation de France Télévisions et le soutien des régions Provence-Alpes-Côte d'Azur et Île-de-France.
+La série est présentée en compétition internationale et en première mondiale au Festival Séries Mania à Lille en mars 2023,.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Les_Gouttes_de_Dieu_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tandis que le monde du vin pleure le célèbre œnologue Alexandre Léger, sa fille Camille, avec qui il n'était plus en contact depuis de nombreuses années, est convoquée chez le notaire de son père à Tokyo et apprend qu'elle hérite de sa maison et de son extraordinaire collection de vins, à la condition de battre Tomine Issei, œnologue et « fils spirituel » d'Alexandre Léger, lors d'une épreuve en trois parties.
 Le problème est que Camille ne boit jamais d'alcool et, en particulier, jamais de vin, depuis un accident survenu durant son enfance lorsque son père l'entraînait à développer son nez et à reconnaître cépages, crus et terroirs.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Les_Gouttes_de_Dieu_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Présent
-Stanley Weber : Alexandre Léger
+          <t>Présent</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Stanley Weber : Alexandre Léger
 Fleur Geffrier : Camille Léger, la fille d'Alexandre Léger
 Cécile Bois : Marianne Léger, la mère de Camille
 Tomohisa Yamashita : Issei Tomine, œnologue et « fils spirituel » d'Alexandre Léger
@@ -563,9 +582,43 @@
 Satoshi Nikaido : Hirokazu Tomine, le père d'Issei
 Maël Cordier : Julien
 Benjamin Penamaria : Garnier
-Stanislas Stanic : Laurent Delage
-Retours dans le passé
-Manon Maindivide : Camille Léger enfant
+Stanislas Stanic : Laurent Delage</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Gouttes_de_Dieu_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Retours dans le passé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Manon Maindivide : Camille Léger enfant
 Margaux Chatelier : Marianne Léger jeune
 Julien Personnaz : Philippe Chassangre jeune
 Calliste Dupin : Thomas Chassangre adolescent
@@ -573,97 +626,209 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Gouttes_de_Dieu_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Genèse et développement
-La série est créée par Quoc Dang Tran et écrite par ce dernier, Clémence Madeleine-Perdrillat et Alice Vial[3],[8],[9].
-Le Figaro note : « Dans la BD, les protagonistes sont des trentenaires japonais. Ici ce sera une Française et un Japonais qui s'affrontent dans des épreuves pour récupérer la collection de vins », défis par ailleurs réduits de 12 à 3, contrairement au manga[5].
-En mai 2024, on apprend que la série aura droit à une deuxième saison[10] car, comme le souligne Le Point, « le résultat, fascinant, a convaincu critiques et abonnés d'Apple TV+, qui lui ont accordé, chose rare, le score parfait de 100 % sur l'espace critique Rotten Tomatoes. La plateforme de streaming vient donc logiquement de commander une autre cuvée, sans lien cette fois avec les mangas. Et sans Quoc Dang Tran : " J'ai raconté mon histoire et j'en ai d'autres à raconter. J'ai donc décidé de ne pas continuer ", annonce le créateur, qui travaille actuellement sur une série pour la prestigieuse chaîne américaine HBO. " Mais je reste en contact avec les producteurs et je pense que ce sera une très belle saison " »[11].
-Attribution des rôles
-En août 2021, on apprend que Tomohisa Yamashita et Fleur Geffrier ont été choisis pour interpréter les rôles de Tomine Issei et Camille Léger[1],[2].
-Le même mois, Cécile Bois annonce qu'elle va tourner dans la série : « Une très belle histoire qui s'appelle Les Gouttes de Dieu. On a réussi à trouver des créneaux pour que je puisse avoir une petite participation qui me fait trop plaisir. C'est très différent de ce que l'on voit actuellement dans l'univers audiovisuel »[12]. Sur sa page Instagram, la comédienne souligne : « Très jolie expérience, très jolies rencontres, et une fiction pleine de grandes promesses »[13].
-Tournage
-Le tournage se déroule du 16 août au 16 septembre 2021 en France (entre autres à l'hôtel Lutetia et au restaurant Prunier à Paris, à la cité administrative d'Évry pour figurer l'ambassade de France au Japon dans les années 1970, à Bordeaux et au Château de Beaucastel dans le Vaucluse) pour se prolonger ensuite dans le Tyrol du Sud (en Italie) et au Japon[4],[8],[5],[14].
-À propos du tournage de la scène de crémation dans le premier épisode, Fleur Geffrier confie : « Je connaissais certaines coutumes, mais pas celle-ci, les enterrements, les crémations, je ne connaissais pas et je n'étais pas du tout au fait de cette tradition qui est que les proches remplissent l'urne avec les os du défunt eux-mêmes […] On prend les os avec des baguettes […] C'étaient des os de porc, mais ils avaient reconstitué la forme d'un corps humain pour le tournage. C'était impressionnant ! »[15].
-Fiche technique
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
-Titre original : Drops of God - 神の雫[1]
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série est créée par Quoc Dang Tran et écrite par ce dernier, Clémence Madeleine-Perdrillat et Alice Vial.
+Le Figaro note : « Dans la BD, les protagonistes sont des trentenaires japonais. Ici ce sera une Française et un Japonais qui s'affrontent dans des épreuves pour récupérer la collection de vins », défis par ailleurs réduits de 12 à 3, contrairement au manga.
+En mai 2024, on apprend que la série aura droit à une deuxième saison car, comme le souligne Le Point, « le résultat, fascinant, a convaincu critiques et abonnés d'Apple TV+, qui lui ont accordé, chose rare, le score parfait de 100 % sur l'espace critique Rotten Tomatoes. La plateforme de streaming vient donc logiquement de commander une autre cuvée, sans lien cette fois avec les mangas. Et sans Quoc Dang Tran : " J'ai raconté mon histoire et j'en ai d'autres à raconter. J'ai donc décidé de ne pas continuer ", annonce le créateur, qui travaille actuellement sur une série pour la prestigieuse chaîne américaine HBO. " Mais je reste en contact avec les producteurs et je pense que ce sera une très belle saison " ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Gouttes_de_Dieu_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En août 2021, on apprend que Tomohisa Yamashita et Fleur Geffrier ont été choisis pour interpréter les rôles de Tomine Issei et Camille Léger,.
+Le même mois, Cécile Bois annonce qu'elle va tourner dans la série : « Une très belle histoire qui s'appelle Les Gouttes de Dieu. On a réussi à trouver des créneaux pour que je puisse avoir une petite participation qui me fait trop plaisir. C'est très différent de ce que l'on voit actuellement dans l'univers audiovisuel ». Sur sa page Instagram, la comédienne souligne : « Très jolie expérience, très jolies rencontres, et une fiction pleine de grandes promesses ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Gouttes_de_Dieu_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage se déroule du 16 août au 16 septembre 2021 en France (entre autres à l'hôtel Lutetia et au restaurant Prunier à Paris, à la cité administrative d'Évry pour figurer l'ambassade de France au Japon dans les années 1970, à Bordeaux et au Château de Beaucastel dans le Vaucluse) pour se prolonger ensuite dans le Tyrol du Sud (en Italie) et au Japon.
+À propos du tournage de la scène de crémation dans le premier épisode, Fleur Geffrier confie : « Je connaissais certaines coutumes, mais pas celle-ci, les enterrements, les crémations, je ne connaissais pas et je n'étais pas du tout au fait de cette tradition qui est que les proches remplissent l'urne avec les os du défunt eux-mêmes […] On prend les os avec des baguettes […] C'étaient des os de porc, mais ils avaient reconstitué la forme d'un corps humain pour le tournage. C'était impressionnant ! ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Gouttes_de_Dieu_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
+Titre original : Drops of God - 神の雫
 Titre français : Les Gouttes de Dieu
-Création : Quoc Dang Tran[9]
-Réalisation : Oded Ruskin[3],[8],[9]
-Scénario : Clémence Madeleine-Perdrillat, Quoc Dang Tran et Alice Vial[3],[8],[9]
-Musique : Kenma Shindo[9]
+Création : Quoc Dang Tran
+Réalisation : Oded Ruskin
+Scénario : Clémence Madeleine-Perdrillat, Quoc Dang Tran et Alice Vial
+Musique : Kenma Shindo
 Décors : Pierre du Boisberranger
 Costumes : Marielle Robaut
 Photographie : Rotem Yaron
 Son : Amaury de Nexon et Frédéric de Ravignan
 Montage : Boaz Mann
-Production : Klaus Zimmermann[3],[16]
-Sociétés de production : Les Productions Dynamic, 22H22 et Hulu Japon[5]
+Production : Klaus Zimmermann,
+Sociétés de production : Les Productions Dynamic, 22H22 et Hulu Japon
 Société de distribution : Apple TV+, Hulu Japon et France Télévisions
-Pays de production :  Japon /  France /  États-Unis[2]
+Pays de production :  Japon /  France /  États-Unis
 Langue originale : français
 Format : couleur
 Nombre de saisons : 1
-Nombre d'épisodes[8],[14],[9] : 8
+Nombre d'épisodes : 8
 Genre : Drame
-Durée : 52 minutes[8],[14],[9]
+Durée : 52 minutes
 Dates de première diffusion :
 France :
-21 avril 2023 sur Apple TV+[17]
-27 mai 2024 sur France 2[18],[9]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+21 avril 2023 sur Apple TV+
+27 mai 2024 sur France 2,</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Gouttes_de_Dieu_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Un père
 Le ciel, la terre, les hommes
@@ -676,82 +841,127 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Gouttes_de_Dieu_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Audiences et diffusion
-En France
-En France, la série est diffusée le lundi vers 21 h 10 sur France 2 par salve de trois, trois puis deux épisodes du 27 mai au 10 juin 2024[18],[9],[19].
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Audiences et diffusion</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la série est diffusée le lundi vers 21 h 10 sur France 2 par salve de trois, trois puis deux épisodes du 27 mai au 10 juin 2024.
 Les plus hauts chiffres d'audience
 Les plus bas chiffres d'audience
-Accueil critique
-Pour Fanny Lombard Allegra, du site VL-media, « Globalement, la série est – un comble ! – plus sobre que le manga, dans le sens où elle en atténue le côté fantasmagorique et mélodramatique. C'est un choix que l'on suppose assumé, et qui fait sens a fortiori parce qu'il permet de mettre l'accent sur quelque chose de plus large, qui va bien au-delà du vin. Car le vin sert de contexte, presque de prétexte à une histoire plus universelle. A travers la compétition que se livrent à distance les deux personnages , Les Gouttes de Dieu évoque pêle-mêle la famille, le poids de l'éducation, l'héritage, la transmission. L'aspect le plus intéressant, c'est justement la manière dont par le prisme du vin, Les Gouttes de Dieu parle de la façon dont on se construit par rapport à ses parents, en vertu ou contre la relation que l'on a avec eux […] La tentation étant trop forte, on se prête aux jeux de mots vinicoles : Les Gouttes de Dieu est une excellente cuvée. Moins extravagante et moins lyrique  que le manga, la série est au contraire plus réaliste et pragmatique dans son approche du monde du vin ; elle reste en revanche aussi forte dans son évocation des questions plus générales de la transmission et des liens familiaux. Portée par les excellents Fleur Geffrier et Tomohisa Yamashita, c'est une série ample, qui ne manque pas de bouquet et qui se déguste avec plaisir »[21].
-Constance Jamet, du Figaro TV Magazine, est très élogieuse : « Tour de force, ces huit épisodes rendent tangibles à l'écran l'explosion du bouquet en bouche. Les souvenirs, les goûts et les odeurs prennent vie avec une force visuelle sidérante. Bibliothèque de parfums, pluie de couleurs sur Camille, qui se fait bombarder de poudres, pierres et terres baignées de soleil… Jamais le terme «labyrinthe mental» n'aura aussi bien porté son nom. Les comédiens ont pu le vivre dans leur chair. «Nous avons été épaulés sur le tournage par le sommelier Sébastien Pradal. Et nous avons pu bénéficier d'une formation accélérée de quelques heures. J'ai pu jouer avec un véridique coffret de nez lors des scènes où Camille essaie de raviver son odorat», se souvient Fleur Geffrier, véritable révélation de cette série. Elle et Tomohisa Yamashita ont profité des tournages dans différents vignobles, dont ceux de Châteauneuf-du-Pape, pour se constituer une cave. L'initiation a tellement plu à son partenaire nippon qu'il continue de suivre des cours. Cette ode aux saveurs, quasi-proustienne, ouvre aussi une fenêtre étonnante sur la société japonaise. Dans la lignée de Lost In Translation. La scène de crémation du second épisode marque au fer rouge cette série. Plus possible ensuite de voir une paire de baguettes du même œil. À la fois sensorielle et synaptique, Les Gouttes de Dieu infuse, porté par un rythme qui rappelle l'atmosphère contemplative de certains classiques du septième art nippon. Un spectacle pour les becs fins »[22].
-Pour Ouest-France, « Les Gouttes de Dieu nous emmènent dans l'univers méconnu et original des (très) grands crus mais c'est d'abord une histoire forte autour de la filiation et de l'amour parental, questionnant aussi sur l'inné et l'acquis. Étonnamment, Les Gouttes de Dieu sont reparties bredouilles de Séries Mania où la série concourait en compétition internationale. Quoc Dang Tran et toute l'équipe livrent pourtant une fiction subtile et enivrante »[23].
-Par contre, Ilan Ferry, de Lire Magazine, est beaucoup plus critique envers cette série qui ne conserve de son modèle « que l'ossature narrative à savoir l'affrontement fratricide de deux œnologues amateurs autour de la plus grande collection de vins du monde. Pour le reste, Les Gouttes de Dieu, malgré son cachet international, demeure bien trop franco-française dans son approche et prend des libertés qui le desservent. Visiblement peu intéressés par ce qui faisait la substantifique moelle du manga d'origine, les créateurs de la série relèguent l'enquête œnologique au second plan au profit de sous-intrigues sentimentales »[24].
-Pour Le Monde, « Contre toute attente, l'assemblage de l'invraisemblance des situations, du va-et-vient entre la vallée du Rhône et Tokyo, des leçons d'œnologie pour les nuls et des multiples romances produit une série fraîche, d'un aspect plaisant et bien structuré, mais qui ne reste pas très longtemps à l'esprit »[25].
-Pour le site Numerama, « avec seulement 8 épisodes, ce duel entre Issei Tomine, qui privilégie la théorie, et Camille, davantage instinctive, est moins épique que la longévité des 44 tomes des Gouttes de Dieu. Mais la série parvient à nous donner une furieuse envie de goûter à nouveau à ces breuvages alcoolisés aux côtés de ces personnages subtilement écrits et interprétés »[26].
-Pour le magazine Première, « Pas tout à fait enivrante, la série en est une version plus terre à terre, plus terroir, où les subtilités de l'œnologie sont méticuleusement mises en valeur par la mise en scène intense d'Oded Ruskin, qui offre une robe éclatante à ces dégustations. Le vin made in France, de Châteauneuf-du-Pape en Chinon, y est finalement la véritable star »[27].
-De son côté, Télérama estime que « librement transposés du manga à succès de Tadashi Agi et Shu Okimoto, ces huit épisodes ont plein d'atouts. Une petite cuvée à déguster sans modération, donc, mais loin du millésime d'exception »[28].
-Télé-Loisirs met en exergue le fait que « sur Rotten Tomatoes, la saison 1 de Drops of God reçoit un score de 100 %, ce qui est un véritable exploit lorsque l'on sait combien les utilisateurs de ce site de critiques peuvent être tatillons »[29].
-En décembre 2023, la rédaction d'Allociné classe la série Les Gouttes de Dieu septième ex æquo parmi les 10 meilleures nouvelles séries de 2023, avec une note de 3,875 sur 5[30].
-Le Point souligne que « certaines séries s'avalent cul sec, pour une satisfaction instantanée mais éphémère. D'autres se dégustent plus lentement, prenant leur temps pour libérer leurs multiples arômes et offrir un plaisir persistant. Les Gouttes de Dieu, que France 2 sert enfin ce lundi 27 mai après une diffusion sur Apple TV+, est de celles-là […] Le résultat, fascinant, a convaincu critiques et abonnés d'Apple TV+, qui lui ont accordé, chose rare, le score parfait de 100 % sur l'espace critique Rotten Tomatoes »[11].
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Les_Gouttes_de_Dieu_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour Fanny Lombard Allegra, du site VL-media, « Globalement, la série est – un comble ! – plus sobre que le manga, dans le sens où elle en atténue le côté fantasmagorique et mélodramatique. C'est un choix que l'on suppose assumé, et qui fait sens a fortiori parce qu'il permet de mettre l'accent sur quelque chose de plus large, qui va bien au-delà du vin. Car le vin sert de contexte, presque de prétexte à une histoire plus universelle. A travers la compétition que se livrent à distance les deux personnages , Les Gouttes de Dieu évoque pêle-mêle la famille, le poids de l'éducation, l'héritage, la transmission. L'aspect le plus intéressant, c'est justement la manière dont par le prisme du vin, Les Gouttes de Dieu parle de la façon dont on se construit par rapport à ses parents, en vertu ou contre la relation que l'on a avec eux […] La tentation étant trop forte, on se prête aux jeux de mots vinicoles : Les Gouttes de Dieu est une excellente cuvée. Moins extravagante et moins lyrique  que le manga, la série est au contraire plus réaliste et pragmatique dans son approche du monde du vin ; elle reste en revanche aussi forte dans son évocation des questions plus générales de la transmission et des liens familiaux. Portée par les excellents Fleur Geffrier et Tomohisa Yamashita, c'est une série ample, qui ne manque pas de bouquet et qui se déguste avec plaisir ».
+Constance Jamet, du Figaro TV Magazine, est très élogieuse : « Tour de force, ces huit épisodes rendent tangibles à l'écran l'explosion du bouquet en bouche. Les souvenirs, les goûts et les odeurs prennent vie avec une force visuelle sidérante. Bibliothèque de parfums, pluie de couleurs sur Camille, qui se fait bombarder de poudres, pierres et terres baignées de soleil… Jamais le terme «labyrinthe mental» n'aura aussi bien porté son nom. Les comédiens ont pu le vivre dans leur chair. «Nous avons été épaulés sur le tournage par le sommelier Sébastien Pradal. Et nous avons pu bénéficier d'une formation accélérée de quelques heures. J'ai pu jouer avec un véridique coffret de nez lors des scènes où Camille essaie de raviver son odorat», se souvient Fleur Geffrier, véritable révélation de cette série. Elle et Tomohisa Yamashita ont profité des tournages dans différents vignobles, dont ceux de Châteauneuf-du-Pape, pour se constituer une cave. L'initiation a tellement plu à son partenaire nippon qu'il continue de suivre des cours. Cette ode aux saveurs, quasi-proustienne, ouvre aussi une fenêtre étonnante sur la société japonaise. Dans la lignée de Lost In Translation. La scène de crémation du second épisode marque au fer rouge cette série. Plus possible ensuite de voir une paire de baguettes du même œil. À la fois sensorielle et synaptique, Les Gouttes de Dieu infuse, porté par un rythme qui rappelle l'atmosphère contemplative de certains classiques du septième art nippon. Un spectacle pour les becs fins ».
+Pour Ouest-France, « Les Gouttes de Dieu nous emmènent dans l'univers méconnu et original des (très) grands crus mais c'est d'abord une histoire forte autour de la filiation et de l'amour parental, questionnant aussi sur l'inné et l'acquis. Étonnamment, Les Gouttes de Dieu sont reparties bredouilles de Séries Mania où la série concourait en compétition internationale. Quoc Dang Tran et toute l'équipe livrent pourtant une fiction subtile et enivrante ».
+Par contre, Ilan Ferry, de Lire Magazine, est beaucoup plus critique envers cette série qui ne conserve de son modèle « que l'ossature narrative à savoir l'affrontement fratricide de deux œnologues amateurs autour de la plus grande collection de vins du monde. Pour le reste, Les Gouttes de Dieu, malgré son cachet international, demeure bien trop franco-française dans son approche et prend des libertés qui le desservent. Visiblement peu intéressés par ce qui faisait la substantifique moelle du manga d'origine, les créateurs de la série relèguent l'enquête œnologique au second plan au profit de sous-intrigues sentimentales ».
+Pour Le Monde, « Contre toute attente, l'assemblage de l'invraisemblance des situations, du va-et-vient entre la vallée du Rhône et Tokyo, des leçons d'œnologie pour les nuls et des multiples romances produit une série fraîche, d'un aspect plaisant et bien structuré, mais qui ne reste pas très longtemps à l'esprit ».
+Pour le site Numerama, « avec seulement 8 épisodes, ce duel entre Issei Tomine, qui privilégie la théorie, et Camille, davantage instinctive, est moins épique que la longévité des 44 tomes des Gouttes de Dieu. Mais la série parvient à nous donner une furieuse envie de goûter à nouveau à ces breuvages alcoolisés aux côtés de ces personnages subtilement écrits et interprétés ».
+Pour le magazine Première, « Pas tout à fait enivrante, la série en est une version plus terre à terre, plus terroir, où les subtilités de l'œnologie sont méticuleusement mises en valeur par la mise en scène intense d'Oded Ruskin, qui offre une robe éclatante à ces dégustations. Le vin made in France, de Châteauneuf-du-Pape en Chinon, y est finalement la véritable star ».
+De son côté, Télérama estime que « librement transposés du manga à succès de Tadashi Agi et Shu Okimoto, ces huit épisodes ont plein d'atouts. Une petite cuvée à déguster sans modération, donc, mais loin du millésime d'exception ».
+Télé-Loisirs met en exergue le fait que « sur Rotten Tomatoes, la saison 1 de Drops of God reçoit un score de 100 %, ce qui est un véritable exploit lorsque l'on sait combien les utilisateurs de ce site de critiques peuvent être tatillons ».
+En décembre 2023, la rédaction d'Allociné classe la série Les Gouttes de Dieu septième ex æquo parmi les 10 meilleures nouvelles séries de 2023, avec une note de 3,875 sur 5.
+Le Point souligne que « certaines séries s'avalent cul sec, pour une satisfaction instantanée mais éphémère. D'autres se dégustent plus lentement, prenant leur temps pour libérer leurs multiples arômes et offrir un plaisir persistant. Les Gouttes de Dieu, que France 2 sert enfin ce lundi 27 mai après une diffusion sur Apple TV+, est de celles-là […] Le résultat, fascinant, a convaincu critiques et abonnés d'Apple TV+, qui lui ont accordé, chose rare, le score parfait de 100 % sur l'espace critique Rotten Tomatoes ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Les_Gouttes_de_Dieu_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gouttes_de_Dieu_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Jeu 3D interactif</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour prolonger l'expérience TV et accompagner la sortie de cette nouvelle série événement, France Télévisions a développé, avec 11e District/Alpha Studio, un jeu 3D interactif et inédit[31].
-Le jeu est accessible gratuitement via la page programme sur france.tv et disponible sur mobile, tablette et ordinateur pendant toute la période de disponibilité de la série[32],[33].
-Plongé dans la mythique cave d'Alexandre Léger, le plus célèbre œnologue au monde, vous avez dix minutes pour résoudre des énigmes, trouver les objets dissimulés et ainsi découvrir le millésime mystérieux[34],[35],[36].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour prolonger l'expérience TV et accompagner la sortie de cette nouvelle série événement, France Télévisions a développé, avec 11e District/Alpha Studio, un jeu 3D interactif et inédit.
+Le jeu est accessible gratuitement via la page programme sur france.tv et disponible sur mobile, tablette et ordinateur pendant toute la période de disponibilité de la série,.
+Plongé dans la mythique cave d'Alexandre Léger, le plus célèbre œnologue au monde, vous avez dix minutes pour résoudre des énigmes, trouver les objets dissimulés et ainsi découvrir le millésime mystérieux.
 </t>
         </is>
       </c>
